--- a/networks/Poisson2D/Circle/SDCircle/WSolOnCircle/-0.1/time_precision/config1_P10/results_Corr.xlsx
+++ b/networks/Poisson2D/Circle/SDCircle/WSolOnCircle/-0.1/time_precision/config1_P10/results_Corr.xlsx
@@ -448,22 +448,22 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.02493739128112793</v>
+        <v>0.02604937553405762</v>
       </c>
       <c r="D3">
-        <v>0.06782054901123047</v>
+        <v>0.07240009307861328</v>
       </c>
       <c r="E3">
-        <v>0.1441807746887207</v>
+        <v>0.1389107704162598</v>
       </c>
       <c r="F3">
-        <v>0.3087923526763916</v>
+        <v>0.2953190803527832</v>
       </c>
       <c r="G3">
-        <v>0.4327700138092041</v>
+        <v>0.4138827323913574</v>
       </c>
       <c r="H3">
-        <v>0.6857321262359619</v>
+        <v>0.6549556255340576</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -498,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.0482640266418457</v>
+        <v>0.04477477073669434</v>
       </c>
       <c r="D5">
-        <v>0.1084086894989014</v>
+        <v>0.1039595603942871</v>
       </c>
       <c r="E5">
-        <v>0.1962831020355225</v>
+        <v>0.1938984394073486</v>
       </c>
       <c r="F5">
-        <v>0.378648042678833</v>
+        <v>0.3779492378234863</v>
       </c>
       <c r="G5">
-        <v>0.5829756259918213</v>
+        <v>0.5499598979949951</v>
       </c>
       <c r="H5">
-        <v>0.7933993339538574</v>
+        <v>0.7745077610015869</v>
       </c>
     </row>
   </sheetData>
